--- a/Mars_Task02/Mars_Task02/ExcelData/TestData.xlsx
+++ b/Mars_Task02/Mars_Task02/ExcelData/TestData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Mars_Task02\Mars_Task02\Mars_Task02\Mars_Task02\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAF95D-1358-4FE5-8642-6110A6C04927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B1EBC-E763-49E5-849F-B2DD8FEDD62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{94832F7C-53C9-4CC2-B8CF-F031C59C78E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{31EFD89E-FE47-449D-B65B-3D9735EB278F}"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageSkill" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>Username</t>
   </si>
@@ -46,13 +48,211 @@
   </si>
   <si>
     <t>password10</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>Mstarttime</t>
+  </si>
+  <si>
+    <t>Mendtime</t>
+  </si>
+  <si>
+    <t>Tstarttime</t>
+  </si>
+  <si>
+    <t>Tendtime</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Assurance Analyst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing fresher level services </t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>16.00 PM</t>
+  </si>
+  <si>
+    <t>18.00 PM</t>
+  </si>
+  <si>
+    <t>API Testing</t>
+  </si>
+  <si>
+    <t>Software Tester</t>
+  </si>
+  <si>
+    <t>Coding with Csharp language, Selenium automation tool.</t>
+  </si>
+  <si>
+    <t>Web based application</t>
+  </si>
+  <si>
+    <t>08.00 AM</t>
+  </si>
+  <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <t>Advanced level tech support on security systems</t>
+  </si>
+  <si>
+    <t>MasterMind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAT </t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>14.00 PM</t>
+  </si>
+  <si>
+    <t>Location Type</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Skill Trade</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Web Design</t>
+  </si>
+  <si>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choreographer </t>
+  </si>
+  <si>
+    <t>Singing</t>
+  </si>
+  <si>
+    <t>Hotel Management@1234</t>
+  </si>
+  <si>
+    <t>Testing with special character</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing negative scenario with blank Desc </t>
+  </si>
+  <si>
+    <t>Testing Negative scenario with Blank Title</t>
+  </si>
+  <si>
+    <t>Testing negative scenario with blank Tag</t>
+  </si>
+  <si>
+    <t>Blank tag field not accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Testing 100 character limit testing  testing testing testing testing  testing testing testingv testing testing Testing 100 character</t>
+  </si>
+  <si>
+    <t>Testing title character limit should not except more then 100 characters</t>
+  </si>
+  <si>
+    <t>Negative test</t>
+  </si>
+  <si>
+    <t>31/06/2023</t>
+  </si>
+  <si>
+    <t>00/08/2023</t>
+  </si>
+  <si>
+    <t>Work Sample</t>
+  </si>
+  <si>
+    <t>QA-Analyst-small.png</t>
+  </si>
+  <si>
+    <t>Quality-Assurance-1-2048x944.png</t>
+  </si>
+  <si>
+    <t>Pic1.jpeg</t>
+  </si>
+  <si>
+    <t>Pic2.jpeg</t>
+  </si>
+  <si>
+    <t>Pic3.jpeg</t>
+  </si>
+  <si>
+    <t>Choreography.jpeg</t>
+  </si>
+  <si>
+    <t>Negative testing work sample</t>
+  </si>
+  <si>
+    <t>Negative testing</t>
+  </si>
+  <si>
+    <t>Negative Testing.jfif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +270,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -77,12 +284,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,27 +319,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{F7A699CB-2033-4A59-9C2C-D02381AE7A48}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{11BB5B6A-B0F0-4D7D-ADA0-676A5E532F1E}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F3CEB594-1F81-4589-8BD1-2DD3CC39585E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,17 +672,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34010CD6-C662-4F95-B89A-2FA91B768899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57129270-4973-4D2F-8AAA-8C4AEE1B8766}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -465,4 +706,591 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826032E2-41D4-4C04-A47D-73C9473C1F4E}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="104.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="6" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45087</v>
+      </c>
+      <c r="G2" s="6">
+        <v>45148</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7">
+        <v>45097</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45158</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45098</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45159</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7">
+        <v>45098</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45159</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7">
+        <v>45098</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45159</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45098</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45159</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7">
+        <v>45098</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45159</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BF2ACD-5AC7-4E02-BB71-21B3670E58E0}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45092</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45153</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>